--- a/biology/Botanique/Rhodomelaceae/Rhodomelaceae.xlsx
+++ b/biology/Botanique/Rhodomelaceae/Rhodomelaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rhodomelaceae (ou Rhodomélacées) sont une famille d'algues rouges de l'ordre des Ceramiales. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (18 mai 2012)[1] et World Register of Marine Species                               (18 mai 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (18 mai 2012) et World Register of Marine Species                               (18 mai 2012) :
 tribu des Amansieae F.Schmitz
 tribu des Bostrychieae Falkenberg
 tribu des Brongniartelleae
@@ -554,9 +568,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (18 mai 2012)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (18 mai 2012) :
 genre Abbottella
 genre Acanthophora
 genre Acrocystis
@@ -687,7 +703,7 @@
 genre Wilsonaea
 genre Womersleyella
 genre Wrightiella
-Selon ITIS      (18 mai 2012)[4] :
+Selon ITIS      (18 mai 2012) :
 genre Acanthophora J. V. F. Lamouroux
 genre Amansia J. V. F. Lamouroux, 1809
 genre Amplisiphonia
@@ -720,7 +736,7 @@
 genre Veleroa
 genre Waldoia W. R. Taylor, 1962
 genre Wrightiella
-Selon NCBI  (18 mai 2012)[5] :
+Selon NCBI  (18 mai 2012) :
 genre Acanthophora
 genre Acrocystis
 genre Alsidium
